--- a/MLAnalysis/validation-result.xlsx
+++ b/MLAnalysis/validation-result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athouvenin\Documents\GitHub\Sentiment-Analysis-EuropePMC\MLAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4646EA8A-DA9F-4999-B579-250D1433DDDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741BC37-70D2-4C9B-BC62-7B6DD7801AF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Combination</t>
   </si>
   <si>
-    <t>Token</t>
-  </si>
-  <si>
     <t>Ngram</t>
   </si>
   <si>
@@ -84,30 +81,12 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>['Tokenization']</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>['N-gram']</t>
-  </si>
-  <si>
-    <t>['Lemmatization']</t>
-  </si>
-  <si>
-    <t>['Stemming']</t>
-  </si>
-  <si>
-    <t>['N-gram', 'Lemmatization']</t>
-  </si>
-  <si>
-    <t>['N-gram', 'Stemming']</t>
-  </si>
-  <si>
     <t>CNN</t>
   </si>
   <si>
@@ -115,6 +94,27 @@
   </si>
   <si>
     <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Stemming</t>
+  </si>
+  <si>
+    <t>Tokenization</t>
+  </si>
+  <si>
+    <t>N-gram</t>
+  </si>
+  <si>
+    <t>Lemmatization</t>
+  </si>
+  <si>
+    <t>N-gram, Lemmatization</t>
+  </si>
+  <si>
+    <t>N-gram, Stemming</t>
+  </si>
+  <si>
+    <t>Raw</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     <tableColumn id="8" xr3:uid="{B2A5EA53-0E33-48EF-A3E5-1D3A8A8C7F3B}" name="AccuracyCV"/>
     <tableColumn id="9" xr3:uid="{4BF828DC-A64E-4FE2-B5DF-72E2E365B36D}" name="Method"/>
     <tableColumn id="10" xr3:uid="{BE347620-FFCF-4893-A72A-80E34B9C5055}" name="Combination"/>
-    <tableColumn id="11" xr3:uid="{AACDACD6-3E34-4BF3-8FE5-9FA50B2C9032}" name="Token" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{AACDACD6-3E34-4BF3-8FE5-9FA50B2C9032}" name="Raw" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{2B2F29C1-DB0C-4390-8CD5-81EE65FB6EC9}" name="Ngram" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{11399C85-1D3A-4616-8CEC-C554DFB1E689}" name="Lemma" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{4F66029E-4F7B-4951-92DD-C975BB567EE9}" name="Stem" dataDxfId="0"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,25 +737,25 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -784,22 +784,22 @@
         <v>89.384</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2">
         <v>23</v>
@@ -831,22 +831,22 @@
         <v>89.474000000000004</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O3">
         <v>103</v>
@@ -878,22 +878,22 @@
         <v>88.947000000000003</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O4">
         <v>19</v>
@@ -925,22 +925,22 @@
         <v>89.120999999999995</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O5">
         <v>105</v>
@@ -972,22 +972,22 @@
         <v>88.591999999999999</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -1019,22 +1019,22 @@
         <v>89.120999999999995</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O7">
         <v>17</v>
@@ -1066,22 +1066,22 @@
         <v>89.034999999999997</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8">
         <v>9</v>
@@ -1113,22 +1113,22 @@
         <v>88.42</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O9">
         <v>22</v>
@@ -1160,22 +1160,22 @@
         <v>88.680999999999997</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O10">
         <v>10</v>
@@ -1207,22 +1207,22 @@
         <v>88.945999999999998</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O11">
         <v>13</v>
@@ -1254,22 +1254,22 @@
         <v>88.772999999999996</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O12">
         <v>81</v>
@@ -1301,22 +1301,22 @@
         <v>88.155000000000001</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O13">
         <v>6</v>
@@ -1348,22 +1348,22 @@
         <v>86.668999999999997</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O14">
         <v>61</v>
@@ -1401,22 +1401,22 @@
         <v>88.1</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O15">
         <v>88</v>
@@ -1454,22 +1454,22 @@
         <v>87.9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O16">
         <v>99</v>
@@ -1507,22 +1507,22 @@
         <v>87.807000000000002</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O17">
         <v>437</v>
@@ -1560,22 +1560,22 @@
         <v>88</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O18">
         <v>82</v>
@@ -1613,22 +1613,22 @@
         <v>85.516000000000005</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
       <c r="K19" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O19">
         <v>496</v>
@@ -1666,22 +1666,22 @@
         <v>84.738</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O20">
         <v>63</v>
@@ -1719,22 +1719,22 @@
         <v>86.573999999999998</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O21">
         <v>499</v>
@@ -1772,22 +1772,22 @@
         <v>83.506</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O22">
         <v>69</v>
@@ -1831,19 +1831,19 @@
         <v>9</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -1872,22 +1872,22 @@
         <v>89.384</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O27" s="6">
         <v>23</v>
@@ -1919,22 +1919,22 @@
         <v>89.474000000000004</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O28" s="4">
         <v>103</v>
@@ -1966,22 +1966,22 @@
         <v>88.947000000000003</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O29" s="6">
         <v>19</v>
@@ -2013,22 +2013,22 @@
         <v>89.120999999999995</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O30" s="4">
         <v>105</v>
@@ -2060,22 +2060,22 @@
         <v>88.42</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O31" s="6">
         <v>22</v>
@@ -2107,22 +2107,22 @@
         <v>88.772999999999996</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O32" s="4">
         <v>81</v>
